--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.022820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.022820.xlsx_with_dialog_acts.xlsx
@@ -1521,12 +1521,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>fc</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Conventional-closing</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4175,12 +4175,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5729,12 +5729,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6317,12 +6317,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6653,12 +6653,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6947,12 +6947,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
